--- a/Ozrit HR data/ozrit/HR/Salary/Attendance Percentage/Leaves management_.xlsx
+++ b/Ozrit HR data/ozrit/HR/Salary/Attendance Percentage/Leaves management_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Paid Leaves " sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1125,7 +1125,8 @@
     <col min="5" max="5" width="15.7265625" customWidth="1"/>
     <col min="6" max="6" width="18.7265625" customWidth="1"/>
     <col min="7" max="7" width="24.7265625" customWidth="1"/>
-    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" customWidth="1"/>
     <col min="10" max="10" width="29.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8141,8 +8142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
